--- a/tests/balance_sheet_AKBNK.xlsx
+++ b/tests/balance_sheet_AKBNK.xlsx
@@ -810,19 +810,19 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>172765594000</v>
+      </c>
+      <c r="C2">
         <v>96120242000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>136718900000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>143595674000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>127532791000</v>
-      </c>
-      <c r="F2">
-        <v>131950126000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -830,19 +830,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>8533438000</v>
+      </c>
+      <c r="C3">
         <v>3477146000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4772294000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5775880000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10559125000</v>
-      </c>
-      <c r="F3">
-        <v>7481293000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -950,19 +950,19 @@
         <v>13</v>
       </c>
       <c r="B9">
+        <v>8533438000</v>
+      </c>
+      <c r="C9">
         <v>3477146000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4772294000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5775880000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10559125000</v>
-      </c>
-      <c r="F9">
-        <v>7481293000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -970,19 +970,19 @@
         <v>14</v>
       </c>
       <c r="B10">
+        <v>776274000</v>
+      </c>
+      <c r="C10">
         <v>391127000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>548423000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>993582000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>602591000</v>
-      </c>
-      <c r="F10">
-        <v>947840000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -990,19 +990,19 @@
         <v>15</v>
       </c>
       <c r="B11">
+        <v>2860531000</v>
+      </c>
+      <c r="C11">
         <v>1236961000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1449997000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1843351000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6591527000</v>
-      </c>
-      <c r="F11">
-        <v>2283169000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1030,19 +1030,19 @@
         <v>17</v>
       </c>
       <c r="B13">
+        <v>4896633000</v>
+      </c>
+      <c r="C13">
         <v>1849058000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2773874000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2938947000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3365007000</v>
-      </c>
-      <c r="F13">
-        <v>4250284000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1050,19 +1050,19 @@
         <v>18</v>
       </c>
       <c r="B14">
+        <v>44552188000</v>
+      </c>
+      <c r="C14">
         <v>48804569000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>46297722000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>44854689000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>38380622000</v>
-      </c>
-      <c r="F14">
-        <v>38640909000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1070,19 +1070,19 @@
         <v>19</v>
       </c>
       <c r="B15">
+        <v>40027909000</v>
+      </c>
+      <c r="C15">
         <v>1391379000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>804660000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>829572000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1462376000</v>
-      </c>
-      <c r="F15">
-        <v>7764346000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1230,19 +1230,19 @@
         <v>27</v>
       </c>
       <c r="B23">
+        <v>782475121000</v>
+      </c>
+      <c r="C23">
         <v>462365822000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>516912425000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>560887896000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>616109115000</v>
-      </c>
-      <c r="F23">
-        <v>677468436000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1430,10 +1430,10 @@
         <v>37</v>
       </c>
       <c r="B33">
+        <v>18957000</v>
+      </c>
+      <c r="C33">
         <v>18129000</v>
-      </c>
-      <c r="C33">
-        <v>18957000</v>
       </c>
       <c r="D33">
         <v>18957000</v>
@@ -1470,10 +1470,10 @@
         <v>39</v>
       </c>
       <c r="B35">
+        <v>18957000</v>
+      </c>
+      <c r="C35">
         <v>18129000</v>
-      </c>
-      <c r="C35">
-        <v>18957000</v>
       </c>
       <c r="D35">
         <v>18957000</v>
@@ -1530,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>841863000</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>841863000</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1690,19 +1690,19 @@
         <v>50</v>
       </c>
       <c r="B46">
+        <v>16799116000</v>
+      </c>
+      <c r="C46">
         <v>8946593000</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>9387391000</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>9359684000</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>11925591000</v>
-      </c>
-      <c r="F46">
-        <v>12691231000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1870,19 +1870,19 @@
         <v>59</v>
       </c>
       <c r="B55">
+        <v>16376469000</v>
+      </c>
+      <c r="C55">
         <v>6155391000</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>6482131000</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>11380264000</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15232003000</v>
-      </c>
-      <c r="F55">
-        <v>15394218000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1890,19 +1890,19 @@
         <v>60</v>
       </c>
       <c r="B56">
+        <v>3026200000</v>
+      </c>
+      <c r="C56">
         <v>1605916000</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>2057883000</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>2121532000</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>2706123000</v>
-      </c>
-      <c r="F56">
-        <v>2717256000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1910,7 +1910,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>134405000</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1930,19 +1930,19 @@
         <v>62</v>
       </c>
       <c r="B58">
+        <v>2891795000</v>
+      </c>
+      <c r="C58">
         <v>1605916000</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>2057883000</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2121532000</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>2706123000</v>
-      </c>
-      <c r="F58">
-        <v>2717256000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1970,19 +1970,19 @@
         <v>64</v>
       </c>
       <c r="B60">
+        <v>1512773000</v>
+      </c>
+      <c r="C60">
         <v>6562087000</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>5900432000</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>236253000</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>569208000</v>
-      </c>
-      <c r="F60">
-        <v>421954000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1990,19 +1990,19 @@
         <v>65</v>
       </c>
       <c r="B61">
+        <v>1439461000</v>
+      </c>
+      <c r="C61">
         <v>162141000</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>5830510000</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>225797000</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>355563000</v>
-      </c>
-      <c r="F61">
-        <v>257000000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2010,19 +2010,19 @@
         <v>66</v>
       </c>
       <c r="B62">
+        <v>73312000</v>
+      </c>
+      <c r="C62">
         <v>6399946000</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>69922000</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>10456000</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>213645000</v>
-      </c>
-      <c r="F62">
-        <v>164954000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2030,19 +2030,19 @@
         <v>67</v>
       </c>
       <c r="B63">
+        <v>490050000</v>
+      </c>
+      <c r="C63">
         <v>210300000</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>332521000</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>272619000</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>591213000</v>
-      </c>
-      <c r="F63">
-        <v>543678000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2050,19 +2050,19 @@
         <v>68</v>
       </c>
       <c r="B64">
+        <v>490050000</v>
+      </c>
+      <c r="C64">
         <v>210300000</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>332521000</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>272619000</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>591213000</v>
-      </c>
-      <c r="F64">
-        <v>543678000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2090,19 +2090,19 @@
         <v>70</v>
       </c>
       <c r="B66">
+        <v>33719990000</v>
+      </c>
+      <c r="C66">
         <v>10099507000</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>13740378000</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>21547260000</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>25626503000</v>
-      </c>
-      <c r="F66">
-        <v>31419958000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2110,19 +2110,19 @@
         <v>71</v>
       </c>
       <c r="B67">
+        <v>1526853402000</v>
+      </c>
+      <c r="C67">
         <v>850483248000</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>981301615000</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1068997700000</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1147294180000</v>
-      </c>
-      <c r="F67">
-        <v>1259275206000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2130,19 +2130,19 @@
         <v>72</v>
       </c>
       <c r="B68">
+        <v>1005969599000</v>
+      </c>
+      <c r="C68">
         <v>514980713000</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>621525383000</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>668957631000</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>721561928000</v>
-      </c>
-      <c r="F68">
-        <v>819227227000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2210,19 +2210,19 @@
         <v>76</v>
       </c>
       <c r="B72">
+        <v>89771941000</v>
+      </c>
+      <c r="C72">
         <v>65371504000</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>75298861000</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>81841116000</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>75062954000</v>
-      </c>
-      <c r="F72">
-        <v>75245128000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2230,19 +2230,19 @@
         <v>77</v>
       </c>
       <c r="B73">
+        <v>112456619000</v>
+      </c>
+      <c r="C73">
         <v>67948538000</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>54593805000</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>49239373000</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>62524453000</v>
-      </c>
-      <c r="F73">
-        <v>72056530000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2310,19 +2310,19 @@
         <v>81</v>
       </c>
       <c r="B77">
+        <v>37732007000</v>
+      </c>
+      <c r="C77">
         <v>28419885000</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>33673033000</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>39025379000</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>25818445000</v>
-      </c>
-      <c r="F77">
-        <v>27102668000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2330,19 +2330,19 @@
         <v>82</v>
       </c>
       <c r="B78">
+        <v>1185640000</v>
+      </c>
+      <c r="C78">
         <v>3108251000</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>5070530000</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>8307899000</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>2663511000</v>
-      </c>
-      <c r="F78">
-        <v>3181325000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2370,19 +2370,19 @@
         <v>84</v>
       </c>
       <c r="B80">
+        <v>36546367000</v>
+      </c>
+      <c r="C80">
         <v>25311634000</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>28602503000</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>30717480000</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>23154934000</v>
-      </c>
-      <c r="F80">
-        <v>23921343000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2510,19 +2510,19 @@
         <v>91</v>
       </c>
       <c r="B87">
+        <v>1189652000</v>
+      </c>
+      <c r="C87">
         <v>621787000</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>707184000</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>760476000</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>866382000</v>
-      </c>
-      <c r="F87">
-        <v>954041000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2690,19 +2690,19 @@
         <v>100</v>
       </c>
       <c r="B96">
+        <v>7500242000</v>
+      </c>
+      <c r="C96">
         <v>3823415000</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>4628824000</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>5091263000</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>5862514000</v>
-      </c>
-      <c r="F96">
-        <v>6495452000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2750,19 +2750,19 @@
         <v>103</v>
       </c>
       <c r="B99">
+        <v>3057926000</v>
+      </c>
+      <c r="C99">
         <v>877916000</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1228515000</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>1374969000</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>2255112000</v>
-      </c>
-      <c r="F99">
-        <v>2586160000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2790,19 +2790,19 @@
         <v>105</v>
       </c>
       <c r="B101">
+        <v>4442316000</v>
+      </c>
+      <c r="C101">
         <v>2945499000</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>3400309000</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>3716294000</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>3607402000</v>
-      </c>
-      <c r="F101">
-        <v>3909292000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2810,19 +2810,19 @@
         <v>106</v>
       </c>
       <c r="B102">
+        <v>6527327000</v>
+      </c>
+      <c r="C102">
         <v>11815824000</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>6182967000</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>7376729000</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>14446335000</v>
-      </c>
-      <c r="F102">
-        <v>14525547000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2830,19 +2830,19 @@
         <v>107</v>
       </c>
       <c r="B103">
+        <v>2500912000</v>
+      </c>
+      <c r="C103">
         <v>11435364000</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>999829000</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>3827138000</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>10961561000</v>
-      </c>
-      <c r="F103">
-        <v>14159398000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2850,19 +2850,19 @@
         <v>108</v>
       </c>
       <c r="B104">
+        <v>4026415000</v>
+      </c>
+      <c r="C104">
         <v>380460000</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>5183138000</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>3549591000</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>3484774000</v>
-      </c>
-      <c r="F104">
-        <v>366149000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2930,19 +2930,19 @@
         <v>112</v>
       </c>
       <c r="B108">
+        <v>12837383000</v>
+      </c>
+      <c r="C108">
         <v>13380820000</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>14967863000</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>16921746000</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>16800082000</v>
-      </c>
-      <c r="F108">
-        <v>17504209000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2950,19 +2950,19 @@
         <v>113</v>
       </c>
       <c r="B109">
+        <v>169547088000</v>
+      </c>
+      <c r="C109">
         <v>90671405000</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>102732967000</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>126202208000</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>153605870000</v>
-      </c>
-      <c r="F109">
-        <v>153741414000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3210,19 +3210,19 @@
         <v>126</v>
       </c>
       <c r="B122">
+        <v>108313918000</v>
+      </c>
+      <c r="C122">
         <v>57107451000</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>57238548000</v>
-      </c>
-      <c r="D122">
-        <v>57238547000</v>
       </c>
       <c r="E122">
         <v>57238547000</v>
       </c>
       <c r="F122">
-        <v>108309918000</v>
+        <v>57238547000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3230,7 +3230,7 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>2058326000</v>
+        <v>2944561000</v>
       </c>
       <c r="C123">
         <v>2058326000</v>
@@ -3242,7 +3242,7 @@
         <v>2058326000</v>
       </c>
       <c r="F123">
-        <v>2940561000</v>
+        <v>2058326000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3270,10 +3270,10 @@
         <v>129</v>
       </c>
       <c r="B125">
+        <v>93754591000</v>
+      </c>
+      <c r="C125">
         <v>54898246000</v>
-      </c>
-      <c r="C125">
-        <v>55003132000</v>
       </c>
       <c r="D125">
         <v>55003132000</v>
@@ -3282,7 +3282,7 @@
         <v>55003132000</v>
       </c>
       <c r="F125">
-        <v>93777275000</v>
+        <v>55003132000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3290,19 +3290,19 @@
         <v>130</v>
       </c>
       <c r="B126">
+        <v>11614766000</v>
+      </c>
+      <c r="C126">
         <v>150879000</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>177090000</v>
-      </c>
-      <c r="D126">
-        <v>177089000</v>
       </c>
       <c r="E126">
         <v>177089000</v>
       </c>
       <c r="F126">
-        <v>11592082000</v>
+        <v>177089000</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3310,19 +3310,19 @@
         <v>131</v>
       </c>
       <c r="B127">
+        <v>31196447000</v>
+      </c>
+      <c r="C127">
         <v>8229727000</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>21337006000</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>38403341000</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>60206179000</v>
-      </c>
-      <c r="F127">
-        <v>10893234000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3330,10 +3330,10 @@
         <v>132</v>
       </c>
       <c r="B128">
+        <v>178095000</v>
+      </c>
+      <c r="C128">
         <v>180469000</v>
-      </c>
-      <c r="C128">
-        <v>180472000</v>
       </c>
       <c r="D128">
         <v>180472000</v>
@@ -3342,7 +3342,7 @@
         <v>180472000</v>
       </c>
       <c r="F128">
-        <v>182095000</v>
+        <v>180472000</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3350,19 +3350,19 @@
         <v>133</v>
       </c>
       <c r="B129">
+        <v>31018352000</v>
+      </c>
+      <c r="C129">
         <v>8049258000</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>21156534000</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>38222869000</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>60025707000</v>
-      </c>
-      <c r="F129">
-        <v>10711139000</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3390,19 +3390,19 @@
         <v>135</v>
       </c>
       <c r="B131">
+        <v>1526853402000</v>
+      </c>
+      <c r="C131">
         <v>850483248000</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>981301615000</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>1068997700000</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>1147294180000</v>
-      </c>
-      <c r="F131">
-        <v>1259275206000</v>
       </c>
     </row>
   </sheetData>
